--- a/xlsxmaps/level_0015.xlsx
+++ b/xlsxmaps/level_0015.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\接收文件\厨房\编辑关卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB99867-A1ED-4F4E-B6BE-C386CF08C27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0567893B-4870-485A-9DEA-ED9BBB936769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="层" sheetId="9" r:id="rId1"/>
     <sheet name="层 (2)" sheetId="22" r:id="rId2"/>
     <sheet name="层 (3)" sheetId="23" r:id="rId3"/>
+    <sheet name="层 (4)" sheetId="24" r:id="rId4"/>
+    <sheet name="层 (5)" sheetId="25" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1293,7 +1295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DA3511-C782-46B5-B49A-715DC60CE1D0}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
@@ -1378,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="3">
-        <v>0</v>
+        <v>20000000</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -1398,13 +1400,13 @@
     </row>
     <row r="5" spans="1:7" ht="20.25" customHeight="1">
       <c r="A5" s="3">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="B5" s="3">
-        <v>20000000</v>
-      </c>
-      <c r="C5" s="3">
-        <v>30000000</v>
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -1479,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2EBE77-4AC1-4BCB-90E1-0654AC9DABEC}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1584,10 +1586,10 @@
     </row>
     <row r="5" spans="1:7" ht="20.25" customHeight="1">
       <c r="A5" s="3">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <v>30000000</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -1607,10 +1609,10 @@
     </row>
     <row r="6" spans="1:7" ht="20.25" customHeight="1">
       <c r="A6" s="3">
-        <v>12000008</v>
+        <v>0</v>
       </c>
       <c r="B6" s="3">
-        <v>12000008</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -1666,6 +1668,378 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="16.28515625" style="4"/>
+    <col min="3" max="8" width="16.28515625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A4" s="3">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A5" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="B5" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="C5" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A6" s="3">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="3">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931B866C-E64A-47F4-A972-5B58B66BDA67}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="16.28515625" style="4"/>
+    <col min="3" max="8" width="16.28515625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A4" s="3">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A5" s="3">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A6" s="3">
+        <v>12000023</v>
+      </c>
+      <c r="B6" s="3">
+        <v>12000023</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="3">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98328020-202E-4617-B88F-D8CF9F0B37E4}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
@@ -1840,7 +2214,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait"/>
+  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
